--- a/data/energy efficiency_cost.xlsx
+++ b/data/energy efficiency_cost.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\개인폴더\2022 넥스트 새만금RE100\Code\data\220908\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEXTGroup\Dropbox\모델 개발\RE100_Simulation_Model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6821A0-258A-47B5-AB52-4C6CF20874C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FE7189-65E6-4989-BDC6-26D583FEE7F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14385" yWindow="2355" windowWidth="8295" windowHeight="8910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="E5:F6"/>
+      <selection activeCell="F5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -505,25 +505,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>500000000</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>18670000000</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>26139999999.999996</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>60000000</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>60000000</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>60000000</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>60000000</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
